--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,277 +40,304 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>bad</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
     <t>top</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>whole</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>life</t>
+  </si>
+  <si>
+    <t>ironic</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>much</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>world</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>’</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>watched</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>positive</t>
@@ -671,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -743,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -761,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -793,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -811,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -890,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,16 +938,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -940,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -982,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -990,13 +1017,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.8620689655172413</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.7466666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,16 +1138,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.7368421052631579</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1132,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.775</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>0.7</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1211,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1240,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1261,16 +1288,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.631578947368421</v>
+        <v>0.68</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7101449275362319</v>
+        <v>0.8125</v>
       </c>
       <c r="C15">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L15">
         <v>40</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15">
-        <v>0.6</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
       <c r="M15">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.5757575757575758</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,31 +1485,31 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1558,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.4814814814814815</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6956521739130435</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.4791666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,38 +1667,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6875</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>35</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="L21">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="L21">
-        <v>8</v>
-      </c>
-      <c r="M21">
-        <v>8</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1682,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1690,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,16 +1738,16 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.3846153846153846</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,31 +1785,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.3260869565217391</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>15</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6363636363636364</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,16 +1838,16 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.3220338983050847</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,7 +1867,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -1858,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.3096539162112932</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L25">
-        <v>340</v>
+        <v>7</v>
       </c>
       <c r="M25">
-        <v>340</v>
+        <v>7</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>758</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6170212765957447</v>
+        <v>0.65</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.3043478260869565</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.2857142857142857</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5833333333333334</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -2008,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.2777777777777778</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2058,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.2682926829268293</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,7 +2117,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -2108,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K30">
         <v>0.2608695652173913</v>
@@ -2140,13 +2167,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5384615384615384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2158,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.2459016393442623</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2190,13 +2217,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2208,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.2105263157894737</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2232,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2240,37 +2267,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>15</v>
       </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>13</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.2054794520547945</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2282,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2290,37 +2317,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5238095238095238</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>11</v>
       </c>
-      <c r="D34">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.1882352941176471</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2332,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2340,37 +2367,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5142857142857142</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C35">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>18</v>
       </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>17</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.1851851851851852</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2382,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2390,13 +2417,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4615384615384616</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2408,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.1846153846153846</v>
+        <v>0.2191780821917808</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2432,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2440,7 +2467,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -2458,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="L37">
         <v>7</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K37">
-        <v>0.18</v>
-      </c>
-      <c r="L37">
-        <v>9</v>
-      </c>
       <c r="M37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2482,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2490,13 +2517,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2508,19 +2535,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.1690140845070423</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2532,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2540,38 +2567,38 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3928571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>14</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>0.2037037037037037</v>
+      </c>
+      <c r="L39">
         <v>11</v>
       </c>
-      <c r="D39">
+      <c r="M39">
         <v>11</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>17</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="L39">
-        <v>6</v>
-      </c>
-      <c r="M39">
-        <v>6</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2590,13 +2617,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2051282051282051</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2608,19 +2635,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>0.1343283582089552</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2640,89 +2667,137 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0547945205479452</v>
+        <v>0.2</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>276</v>
+        <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>0.1236749116607774</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="L41">
+        <v>11</v>
+      </c>
+      <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>65</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42">
+        <v>0.1463414634146341</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>35</v>
       </c>
-      <c r="M41">
-        <v>35</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.110105580693816</v>
-      </c>
-      <c r="L42">
-        <v>73</v>
-      </c>
-      <c r="M42">
-        <v>74</v>
-      </c>
-      <c r="N42">
-        <v>0.99</v>
-      </c>
-      <c r="O42">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>590</v>
-      </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.06164383561643835</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>0.28</v>
+      </c>
+      <c r="F43">
+        <v>0.72</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>274</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>0.1092592592592593</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L43">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="M43">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2734,47 +2809,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>481</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.08771929824561403</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="L44">
         <v>10</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N44">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.08029197080291971</v>
+        <v>0.12</v>
       </c>
       <c r="L45">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M45">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2786,21 +2861,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K46">
-        <v>0.07936507936507936</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2812,21 +2887,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>290</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K47">
-        <v>0.07331378299120235</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2838,21 +2913,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>316</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K48">
-        <v>0.06168831168831169</v>
+        <v>0.09487951807228916</v>
       </c>
       <c r="L48">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2864,67 +2939,67 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>578</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K49">
-        <v>0.06113033448673587</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L49">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="M49">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1628</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.05897435897435897</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L50">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M50">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>734</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K51">
-        <v>0.05504587155963303</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L51">
         <v>6</v>
@@ -2942,21 +3017,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>0.05426356589147287</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2968,47 +3043,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>122</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K53">
-        <v>0.04861111111111111</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>274</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K54">
-        <v>0.04545454545454546</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3020,33 +3095,215 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>126</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="K55">
-        <v>0.02473498233215548</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56">
+        <v>0.06521739130434782</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57">
+        <v>0.06163594470046083</v>
+      </c>
+      <c r="L57">
+        <v>107</v>
+      </c>
+      <c r="M57">
+        <v>107</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58">
+        <v>0.05590062111801242</v>
+      </c>
+      <c r="L58">
+        <v>9</v>
+      </c>
+      <c r="M58">
+        <v>9</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K59">
+        <v>0.05303030303030303</v>
+      </c>
+      <c r="L59">
         <v>7</v>
       </c>
-      <c r="M55">
-        <v>23</v>
-      </c>
-      <c r="N55">
-        <v>0.3</v>
-      </c>
-      <c r="O55">
-        <v>0.7</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>276</v>
+      <c r="M59">
+        <v>7</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60">
+        <v>0.03841229193341869</v>
+      </c>
+      <c r="L60">
+        <v>30</v>
+      </c>
+      <c r="M60">
+        <v>30</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61">
+        <v>0.03125</v>
+      </c>
+      <c r="L61">
+        <v>9</v>
+      </c>
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K62">
+        <v>0.02491103202846975</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>0.28</v>
+      </c>
+      <c r="O62">
+        <v>0.72</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
